--- a/LeetCode/readme format.xlsx
+++ b/LeetCode/readme format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="50">
   <si>
     <t>|</t>
   </si>
@@ -140,6 +140,30 @@
   </si>
   <si>
     <t>http://jkchang1988.blogspot.co.uk/2016/06/283-move-zeros.html</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string/</t>
+  </si>
+  <si>
+    <t>./src/main/java/leetcode/reverseString.java</t>
+  </si>
+  <si>
+    <t>./src/test/java/leetcode/reverseStringTest.java</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/tag/string/</t>
+  </si>
+  <si>
+    <t>http://jkchang1988.blogspot.co.uk/2016/06/344-reverse-string.html</t>
   </si>
 </sst>
 </file>
@@ -592,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL26"/>
+  <dimension ref="A1:AL27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AL6"/>
+      <selection activeCell="B1" sqref="B1:AL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>0</v>
@@ -1004,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>3</v>
@@ -1013,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>5</v>
@@ -1034,7 +1058,7 @@
         <v>4</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>5</v>
@@ -1055,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>5</v>
@@ -1067,7 +1091,7 @@
         <v>2</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="AA5" s="9" t="s">
         <v>3</v>
@@ -1075,8 +1099,8 @@
       <c r="AB5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="19" t="s">
-        <v>19</v>
+      <c r="AC5" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="AD5" s="9" t="s">
         <v>5</v>
@@ -1088,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>3</v>
@@ -1097,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="AJ5" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AK5" s="9" t="s">
         <v>5</v>
@@ -1111,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>0</v>
@@ -1120,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>3</v>
@@ -1129,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>5</v>
@@ -1150,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>5</v>
@@ -1171,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>5</v>
@@ -1204,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>3</v>
@@ -1213,7 +1237,7 @@
         <v>4</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK6" s="9" t="s">
         <v>5</v>
@@ -1226,21 +1250,27 @@
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="I7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1250,14 +1280,18 @@
       <c r="K7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="13"/>
+      <c r="L7" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="M7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="13"/>
+      <c r="O7" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="P7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1267,14 +1301,18 @@
       <c r="R7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S7" s="14"/>
+      <c r="S7" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="T7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="14"/>
+      <c r="V7" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="W7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1284,14 +1322,18 @@
       <c r="Y7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Z7" s="15"/>
+      <c r="Z7" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="AA7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC7" s="15"/>
+      <c r="AC7" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="AD7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1301,14 +1343,18 @@
       <c r="AF7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AG7" s="16"/>
+      <c r="AG7" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="AH7" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AI7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AJ7" s="16"/>
+      <c r="AJ7" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="AK7" s="9" t="s">
         <v>5</v>
       </c>
@@ -3099,14 +3145,108 @@
         <v>5</v>
       </c>
       <c r="AL26" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="13"/>
+      <c r="P27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="14"/>
+      <c r="T27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="14"/>
+      <c r="W27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL27" s="9" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AC4" r:id="rId1"/>
-    <hyperlink ref="AC5" r:id="rId2"/>
-    <hyperlink ref="AC6" r:id="rId3"/>
+    <hyperlink ref="AC6" r:id="rId2"/>
+    <hyperlink ref="AC7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/LeetCode/readme format.xlsx
+++ b/LeetCode/readme format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="55">
   <si>
     <t>|</t>
   </si>
@@ -160,10 +160,25 @@
     <t>String</t>
   </si>
   <si>
-    <t>https://leetcode.com/tag/string/</t>
-  </si>
-  <si>
     <t>http://jkchang1988.blogspot.co.uk/2016/06/344-reverse-string.html</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element/</t>
+  </si>
+  <si>
+    <t>./src/main/java/leetcode/majorityElement.java</t>
+  </si>
+  <si>
+    <t>./src/test/java/leetcode/majorityElementTest.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/tag/string/ </t>
   </si>
 </sst>
 </file>
@@ -616,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL27"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AL7"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +882,7 @@
       <c r="AB3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AC3" s="19" t="s">
         <v>19</v>
       </c>
       <c r="AD3" s="9" t="s">
@@ -903,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>0</v>
@@ -912,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>3</v>
@@ -921,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>5</v>
@@ -942,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>5</v>
@@ -963,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>5</v>
@@ -996,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="AG4" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>3</v>
@@ -1004,9 +1019,7 @@
       <c r="AI4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AJ4" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="AJ4" s="16"/>
       <c r="AK4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>0</v>
@@ -1028,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>3</v>
@@ -1037,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>5</v>
@@ -1058,7 +1071,7 @@
         <v>4</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>5</v>
@@ -1079,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>5</v>
@@ -1091,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="AA5" s="9" t="s">
         <v>3</v>
@@ -1099,8 +1112,8 @@
       <c r="AB5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="15" t="s">
-        <v>48</v>
+      <c r="AC5" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="AD5" s="9" t="s">
         <v>5</v>
@@ -1112,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>3</v>
@@ -1121,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="AJ5" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AK5" s="9" t="s">
         <v>5</v>
@@ -1135,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>0</v>
@@ -1144,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>3</v>
@@ -1153,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>5</v>
@@ -1174,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>5</v>
@@ -1195,7 +1208,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>5</v>
@@ -1207,7 +1220,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="AA6" s="9" t="s">
         <v>3</v>
@@ -1216,7 +1229,7 @@
         <v>4</v>
       </c>
       <c r="AC6" s="19" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="AD6" s="9" t="s">
         <v>5</v>
@@ -1228,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>3</v>
@@ -1237,7 +1250,7 @@
         <v>4</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AK6" s="9" t="s">
         <v>5</v>
@@ -1251,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>0</v>
@@ -1260,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>3</v>
@@ -1269,7 +1282,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>5</v>
@@ -1290,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>5</v>
@@ -1311,7 +1324,7 @@
         <v>4</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>5</v>
@@ -1344,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="AG7" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>3</v>
@@ -1353,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="AJ7" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK7" s="9" t="s">
         <v>5</v>
@@ -1366,21 +1379,27 @@
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="I8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1390,14 +1409,18 @@
       <c r="K8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="13"/>
+      <c r="L8" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="M8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="13"/>
+      <c r="O8" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="P8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1407,14 +1430,18 @@
       <c r="R8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S8" s="14"/>
+      <c r="S8" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="T8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="14"/>
+      <c r="V8" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="W8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1424,14 +1451,18 @@
       <c r="Y8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Z8" s="15"/>
+      <c r="Z8" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="AA8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AB8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC8" s="15"/>
+      <c r="AC8" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="AD8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1441,14 +1472,18 @@
       <c r="AF8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AG8" s="16"/>
+      <c r="AG8" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="AH8" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AI8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AJ8" s="16"/>
+      <c r="AJ8" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="AK8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1484,7 +1519,9 @@
       <c r="K9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L9" s="13"/>
+      <c r="L9" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="M9" s="9" t="s">
         <v>3</v>
       </c>
@@ -1501,7 +1538,9 @@
       <c r="R9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S9" s="14"/>
+      <c r="S9" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="T9" s="9" t="s">
         <v>3</v>
       </c>
@@ -3242,13 +3281,110 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="13"/>
+      <c r="P28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S28" s="14"/>
+      <c r="T28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V28" s="14"/>
+      <c r="W28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ28" s="16"/>
+      <c r="AK28" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL28" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AC4" r:id="rId1"/>
-    <hyperlink ref="AC6" r:id="rId2"/>
-    <hyperlink ref="AC7" r:id="rId3"/>
+    <hyperlink ref="AC5" r:id="rId1"/>
+    <hyperlink ref="AC7" r:id="rId2"/>
+    <hyperlink ref="AC8" r:id="rId3"/>
+    <hyperlink ref="AC6" r:id="rId4"/>
+    <hyperlink ref="AC4" r:id="rId5"/>
+    <hyperlink ref="AC3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/LeetCode/readme format.xlsx
+++ b/LeetCode/readme format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="60">
   <si>
     <t>|</t>
   </si>
@@ -179,6 +179,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/tag/string/ </t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate/</t>
+  </si>
+  <si>
+    <t>./src/main/java/leetcode/containsDuplicate.java</t>
+  </si>
+  <si>
+    <t>./src/test/java/leetcode/containsDuplicateTest.java</t>
   </si>
 </sst>
 </file>
@@ -631,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AL29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection sqref="A1:AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>0</v>
@@ -1041,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>3</v>
@@ -1050,7 +1065,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>5</v>
@@ -1071,7 +1086,7 @@
         <v>4</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>5</v>
@@ -1092,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>5</v>
@@ -1125,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>3</v>
@@ -1133,9 +1148,7 @@
       <c r="AI5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AJ5" s="16" t="s">
-        <v>39</v>
-      </c>
+      <c r="AJ5" s="16"/>
       <c r="AK5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1148,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>0</v>
@@ -1157,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>3</v>
@@ -1166,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>5</v>
@@ -1187,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>5</v>
@@ -1208,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>5</v>
@@ -1220,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="AA6" s="9" t="s">
         <v>3</v>
@@ -1229,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="AC6" s="19" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="AD6" s="9" t="s">
         <v>5</v>
@@ -1241,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>3</v>
@@ -1250,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AK6" s="9" t="s">
         <v>5</v>
@@ -1264,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>0</v>
@@ -1273,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>3</v>
@@ -1282,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>5</v>
@@ -1303,7 +1316,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>5</v>
@@ -1324,7 +1337,7 @@
         <v>4</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>5</v>
@@ -1336,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="Z7" s="15" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="AA7" s="9" t="s">
         <v>3</v>
@@ -1345,7 +1358,7 @@
         <v>4</v>
       </c>
       <c r="AC7" s="19" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="AD7" s="9" t="s">
         <v>5</v>
@@ -1357,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="AG7" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>3</v>
@@ -1366,7 +1379,7 @@
         <v>4</v>
       </c>
       <c r="AJ7" s="16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AK7" s="9" t="s">
         <v>5</v>
@@ -1380,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>0</v>
@@ -1389,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>3</v>
@@ -1398,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>5</v>
@@ -1419,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>5</v>
@@ -1440,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>5</v>
@@ -1473,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="AG8" s="16" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>3</v>
@@ -1482,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="AJ8" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AK8" s="9" t="s">
         <v>5</v>
@@ -1495,21 +1508,27 @@
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="I9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1547,9 @@
       <c r="N9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="13"/>
+      <c r="O9" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="P9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1568,9 @@
       <c r="U9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="14"/>
+      <c r="V9" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="W9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1557,14 +1580,18 @@
       <c r="Y9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Z9" s="15"/>
+      <c r="Z9" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="AA9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AB9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC9" s="15"/>
+      <c r="AC9" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="AD9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1574,14 +1601,18 @@
       <c r="AF9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AG9" s="16"/>
+      <c r="AG9" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="AH9" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AI9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AJ9" s="16"/>
+      <c r="AJ9" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="AK9" s="9" t="s">
         <v>5</v>
       </c>
@@ -1617,7 +1648,9 @@
       <c r="K10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="13"/>
+      <c r="L10" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="M10" s="9" t="s">
         <v>3</v>
       </c>
@@ -1634,7 +1667,9 @@
       <c r="R10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S10" s="14"/>
+      <c r="S10" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="T10" s="9" t="s">
         <v>3</v>
       </c>
@@ -3375,16 +3410,111 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="13"/>
+      <c r="P29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S29" s="14"/>
+      <c r="T29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="14"/>
+      <c r="W29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE29" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI29" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL29" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AC5" r:id="rId1"/>
-    <hyperlink ref="AC7" r:id="rId2"/>
-    <hyperlink ref="AC8" r:id="rId3"/>
-    <hyperlink ref="AC6" r:id="rId4"/>
+    <hyperlink ref="AC6" r:id="rId1"/>
+    <hyperlink ref="AC8" r:id="rId2"/>
+    <hyperlink ref="AC9" r:id="rId3"/>
+    <hyperlink ref="AC7" r:id="rId4"/>
     <hyperlink ref="AC4" r:id="rId5"/>
     <hyperlink ref="AC3" r:id="rId6"/>
+    <hyperlink ref="AC5" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/LeetCode/readme format.xlsx
+++ b/LeetCode/readme format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="77">
   <si>
     <t>|</t>
   </si>
@@ -121,90 +121,158 @@
     <t>./src/main/java/leetcode/moveZeros.java</t>
   </si>
   <si>
+    <t>./src/test/java/leetcode/wiggleSortTest.java</t>
+  </si>
+  <si>
+    <t>./src/test/java/leetcode/moveZerosTest.java</t>
+  </si>
+  <si>
+    <t>http://jkchang1988.blogspot.co.uk/2016/06/238-product-of-array-except-self.html</t>
+  </si>
+  <si>
+    <t>http://jkchang1988.blogspot.co.uk/2016/06/280-wiggle-sort.html</t>
+  </si>
+  <si>
+    <t>http://jkchang1988.blogspot.co.uk/2016/06/283-move-zeros.html</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string/</t>
+  </si>
+  <si>
+    <t>./src/main/java/leetcode/reverseString.java</t>
+  </si>
+  <si>
+    <t>./src/test/java/leetcode/reverseStringTest.java</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>http://jkchang1988.blogspot.co.uk/2016/06/344-reverse-string.html</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element/</t>
+  </si>
+  <si>
+    <t>./src/main/java/leetcode/majorityElement.java</t>
+  </si>
+  <si>
+    <t>./src/test/java/leetcode/majorityElementTest.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/tag/string/ </t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate/</t>
+  </si>
+  <si>
+    <t>./src/main/java/leetcode/containsDuplicate.java</t>
+  </si>
+  <si>
+    <t>./src/test/java/leetcode/containsDuplicateTest.java</t>
+  </si>
+  <si>
+    <t>287</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-duplicate-number/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./src/main/java/leetcode/findDuplicate.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>./src/test/java/leetcode/productExceptSelfTest.java</t>
-  </si>
-  <si>
-    <t>./src/test/java/leetcode/wiggleSortTest.java</t>
-  </si>
-  <si>
-    <t>./src/test/java/leetcode/moveZerosTest.java</t>
-  </si>
-  <si>
-    <t>Medum</t>
-  </si>
-  <si>
-    <t>http://jkchang1988.blogspot.co.uk/2016/06/238-product-of-array-except-self.html</t>
-  </si>
-  <si>
-    <t>http://jkchang1988.blogspot.co.uk/2016/06/280-wiggle-sort.html</t>
-  </si>
-  <si>
-    <t>http://jkchang1988.blogspot.co.uk/2016/06/283-move-zeros.html</t>
-  </si>
-  <si>
-    <t>344</t>
-  </si>
-  <si>
-    <t>Reverse String</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/reverse-string/</t>
-  </si>
-  <si>
-    <t>./src/main/java/leetcode/reverseString.java</t>
-  </si>
-  <si>
-    <t>./src/test/java/leetcode/reverseStringTest.java</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>http://jkchang1988.blogspot.co.uk/2016/06/344-reverse-string.html</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>Majority Element</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/majority-element/</t>
-  </si>
-  <si>
-    <t>./src/main/java/leetcode/majorityElement.java</t>
-  </si>
-  <si>
-    <t>./src/test/java/leetcode/majorityElementTest.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://leetcode.com/tag/string/ </t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>Contains Duplicate</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/contains-duplicate/</t>
-  </si>
-  <si>
-    <t>./src/main/java/leetcode/containsDuplicate.java</t>
-  </si>
-  <si>
-    <t>./src/test/java/leetcode/containsDuplicateTest.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./src/test/java/leetcode/findDuplicateTest.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jkchang1988.blogspot.co.uk/2016/06/287-find-duplicate-number.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jkchang1988.blogspot.co.uk/2016/06/217-contains-duplicate.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jkchang1988.blogspot.co.uk/2016/06/169-majority-element.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>167</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two Sum II - Input array is sorted</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./src/main/java/leetcode/twoSum2.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./src/test/java/leetcode/twoSum2Test.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jkchang1988.blogspot.co.uk/2016/06/two-sum-ii-input-array-is-sorted.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -212,7 +280,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -220,8 +288,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -343,8 +418,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -360,7 +435,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -646,41 +721,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL29"/>
+  <dimension ref="A1:AL31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AL9"/>
+      <selection sqref="A1:AL11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="8" customWidth="1"/>
-    <col min="3" max="4" width="1.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="1.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="3" customWidth="1"/>
-    <col min="9" max="11" width="1.42578125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="1.42578125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="37.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="1.42578125" style="7" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="1.42578125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="40.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="1.42578125" style="7" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="1.42578125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="1.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="8" customWidth="1"/>
+    <col min="3" max="4" width="1.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="3" customWidth="1"/>
+    <col min="6" max="7" width="1.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="3" customWidth="1"/>
+    <col min="9" max="11" width="1.375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="1.375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="37.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="1.375" style="7" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="1.375" style="7" customWidth="1"/>
+    <col min="22" max="22" width="40.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="1.375" style="7" customWidth="1"/>
+    <col min="26" max="26" width="5.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="1.375" style="7" customWidth="1"/>
     <col min="29" max="29" width="31" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="1.42578125" style="7" customWidth="1"/>
-    <col min="33" max="33" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="1.42578125" style="7" customWidth="1"/>
-    <col min="36" max="36" width="58.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="1.42578125" style="7" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="7"/>
+    <col min="30" max="32" width="1.375" style="7" customWidth="1"/>
+    <col min="33" max="33" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="1.375" style="7" customWidth="1"/>
+    <col min="36" max="36" width="58.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="1.375" style="7" customWidth="1"/>
+    <col min="39" max="16384" width="9.125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -746,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -812,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -856,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>5</v>
@@ -928,12 +1003,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>0</v>
@@ -942,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>3</v>
@@ -951,7 +1026,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>5</v>
@@ -972,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>5</v>
@@ -993,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>5</v>
@@ -1026,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="AG4" s="16" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>3</v>
@@ -1034,7 +1109,9 @@
       <c r="AI4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AJ4" s="16"/>
+      <c r="AJ4" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="AK4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1042,12 +1119,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>0</v>
@@ -1056,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>3</v>
@@ -1065,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>5</v>
@@ -1086,7 +1163,7 @@
         <v>4</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>5</v>
@@ -1107,7 +1184,7 @@
         <v>4</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>5</v>
@@ -1148,7 +1225,9 @@
       <c r="AI5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AJ5" s="16"/>
+      <c r="AJ5" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="AK5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1156,12 +1235,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>0</v>
@@ -1170,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>3</v>
@@ -1179,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>5</v>
@@ -1200,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>5</v>
@@ -1221,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>5</v>
@@ -1254,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="AG6" s="16" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>3</v>
@@ -1263,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="AJ6" s="16" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="AK6" s="9" t="s">
         <v>5</v>
@@ -1272,12 +1351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>0</v>
@@ -1286,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>3</v>
@@ -1295,7 +1374,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>5</v>
@@ -1316,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>5</v>
@@ -1337,7 +1416,7 @@
         <v>4</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>5</v>
@@ -1349,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="Z7" s="15" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="AA7" s="9" t="s">
         <v>3</v>
@@ -1358,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="AC7" s="19" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="AD7" s="9" t="s">
         <v>5</v>
@@ -1370,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="AG7" s="16" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="AH7" s="9" t="s">
         <v>3</v>
@@ -1379,7 +1458,7 @@
         <v>4</v>
       </c>
       <c r="AJ7" s="16" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AK7" s="9" t="s">
         <v>5</v>
@@ -1388,12 +1467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>0</v>
@@ -1402,7 +1481,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>3</v>
@@ -1411,7 +1490,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>5</v>
@@ -1432,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>5</v>
@@ -1453,7 +1532,7 @@
         <v>4</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>5</v>
@@ -1465,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="Z8" s="15" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="AA8" s="9" t="s">
         <v>3</v>
@@ -1486,7 +1565,7 @@
         <v>2</v>
       </c>
       <c r="AG8" s="16" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>3</v>
@@ -1495,22 +1574,22 @@
         <v>4</v>
       </c>
       <c r="AJ8" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AK8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL8" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="C9" s="9" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1597,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>3</v>
@@ -1527,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>5</v>
@@ -1548,7 +1627,7 @@
         <v>4</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>5</v>
@@ -1569,7 +1648,7 @@
         <v>4</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="W9" s="9" t="s">
         <v>5</v>
@@ -1581,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="Z9" s="15" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="AA9" s="9" t="s">
         <v>3</v>
@@ -1590,7 +1669,7 @@
         <v>4</v>
       </c>
       <c r="AC9" s="19" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="AD9" s="9" t="s">
         <v>5</v>
@@ -1611,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AK9" s="9" t="s">
         <v>5</v>
@@ -1620,25 +1699,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="I10" s="9" t="s">
         <v>5</v>
       </c>
@@ -1657,7 +1742,9 @@
       <c r="N10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="13"/>
+      <c r="O10" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="P10" s="9" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1763,9 @@
       <c r="U10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="14"/>
+      <c r="V10" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="W10" s="9" t="s">
         <v>5</v>
       </c>
@@ -1686,14 +1775,18 @@
       <c r="Y10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Z10" s="15"/>
+      <c r="Z10" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="AA10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AB10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC10" s="15"/>
+      <c r="AC10" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="AD10" s="9" t="s">
         <v>5</v>
       </c>
@@ -1703,14 +1796,18 @@
       <c r="AF10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AG10" s="16"/>
+      <c r="AG10" s="16" t="s">
+        <v>74</v>
+      </c>
       <c r="AH10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AI10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AJ10" s="16"/>
+      <c r="AJ10" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="AK10" s="9" t="s">
         <v>5</v>
       </c>
@@ -1718,25 +1815,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="F11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="I11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1746,14 +1849,18 @@
       <c r="K11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L11" s="13"/>
+      <c r="L11" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="M11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="13"/>
+      <c r="O11" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="P11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1763,14 +1870,18 @@
       <c r="R11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S11" s="14"/>
+      <c r="S11" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="T11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="U11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="V11" s="14"/>
+      <c r="V11" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="W11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1780,14 +1891,18 @@
       <c r="Y11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Z11" s="15"/>
+      <c r="Z11" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="AA11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AB11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="15"/>
+      <c r="AC11" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="AD11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1797,14 +1912,18 @@
       <c r="AF11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AG11" s="16"/>
+      <c r="AG11" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="AH11" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AI11" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AJ11" s="16"/>
+      <c r="AJ11" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="AK11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1812,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1959,9 @@
       <c r="K12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="13"/>
+      <c r="L12" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="M12" s="9" t="s">
         <v>3</v>
       </c>
@@ -1857,7 +1978,9 @@
       <c r="R12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="14"/>
+      <c r="S12" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="T12" s="9" t="s">
         <v>3</v>
       </c>
@@ -1906,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>0</v>
       </c>
@@ -2000,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>0</v>
       </c>
@@ -2094,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>0</v>
       </c>
@@ -2188,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
@@ -2282,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
@@ -2564,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
@@ -2658,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -2752,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>0</v>
       </c>
@@ -2846,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>0</v>
       </c>
@@ -2940,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>0</v>
       </c>
@@ -3034,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>0</v>
       </c>
@@ -3128,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>0</v>
       </c>
@@ -3222,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
@@ -3316,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>0</v>
       </c>
@@ -3410,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>0</v>
       </c>
@@ -3504,17 +3627,208 @@
         <v>0</v>
       </c>
     </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" s="13"/>
+      <c r="P30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S30" s="14"/>
+      <c r="T30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V30" s="14"/>
+      <c r="W30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL30" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="M31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31" s="13"/>
+      <c r="P31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S31" s="14"/>
+      <c r="T31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V31" s="14"/>
+      <c r="W31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI31" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ31" s="16"/>
+      <c r="AK31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL31" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AC6" r:id="rId1"/>
-    <hyperlink ref="AC8" r:id="rId2"/>
-    <hyperlink ref="AC9" r:id="rId3"/>
-    <hyperlink ref="AC7" r:id="rId4"/>
-    <hyperlink ref="AC4" r:id="rId5"/>
+    <hyperlink ref="AC7" r:id="rId1"/>
+    <hyperlink ref="AC10" r:id="rId2"/>
+    <hyperlink ref="AC11" r:id="rId3"/>
+    <hyperlink ref="AC9" r:id="rId4"/>
+    <hyperlink ref="AC5" r:id="rId5"/>
     <hyperlink ref="AC3" r:id="rId6"/>
-    <hyperlink ref="AC5" r:id="rId7"/>
+    <hyperlink ref="AC6" r:id="rId7"/>
+    <hyperlink ref="AC8" r:id="rId8"/>
+    <hyperlink ref="AC4" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/LeetCode/readme format.xlsx
+++ b/LeetCode/readme format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="84">
   <si>
     <t>|</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Java</t>
-  </si>
-  <si>
-    <t>./src/main/java/leetcode/twoSum.java</t>
   </si>
   <si>
     <t>JavaTest</t>
@@ -244,23 +241,54 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>./src/test/java/leetcode/twoSum2Test.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jkchang1988.blogspot.co.uk/2016/06/two-sum-ii-input-array-is-sorted.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Three Sum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t>./src/main/java/leetcode/threeSum.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>./src/main/java/leetcode/twoSum.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>./src/main/java/leetcode/twoSum2.java</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>./src/test/java/leetcode/twoSum2Test.java</t>
+    <t>./src/test/java/leetcode/threeSumTest.java</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Array</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Medium</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medium</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jkchang1988.blogspot.co.uk/2016/06/two-sum-ii-input-array-is-sorted.html</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -721,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL31"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AL11"/>
+      <selection activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -892,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>0</v>
@@ -931,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>5</v>
@@ -943,58 +971,58 @@
         <v>2</v>
       </c>
       <c r="S3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="14" t="s">
+      <c r="W3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="15" t="s">
+      <c r="AA3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AA3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AD3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AD3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="16" t="s">
+      <c r="AH3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ3" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="AK3" s="9" t="s">
         <v>5</v>
@@ -1008,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>0</v>
@@ -1017,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>3</v>
@@ -1026,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>5</v>
@@ -1047,20 +1075,20 @@
         <v>4</v>
       </c>
       <c r="O4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>16</v>
-      </c>
       <c r="T4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1096,7 @@
         <v>4</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>5</v>
@@ -1080,17 +1108,17 @@
         <v>2</v>
       </c>
       <c r="Z4" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="19" t="s">
-        <v>19</v>
-      </c>
       <c r="AD4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1101,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="AG4" s="16" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>3</v>
@@ -1109,9 +1137,7 @@
       <c r="AI4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AJ4" s="16" t="s">
-        <v>76</v>
-      </c>
+      <c r="AJ4" s="16"/>
       <c r="AK4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1124,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>0</v>
@@ -1133,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>3</v>
@@ -1142,7 +1168,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>5</v>
@@ -1163,7 +1189,7 @@
         <v>4</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>5</v>
@@ -1175,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="S5" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>3</v>
@@ -1184,7 +1210,7 @@
         <v>4</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>5</v>
@@ -1196,17 +1222,17 @@
         <v>2</v>
       </c>
       <c r="Z5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AA5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="19" t="s">
-        <v>19</v>
-      </c>
       <c r="AD5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1217,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="AG5" s="16" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>3</v>
@@ -1226,7 +1252,7 @@
         <v>4</v>
       </c>
       <c r="AJ5" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AK5" s="9" t="s">
         <v>5</v>
@@ -1240,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>0</v>
@@ -1249,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>3</v>
@@ -1258,7 +1284,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>5</v>
@@ -1279,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P6" s="9" t="s">
         <v>5</v>
@@ -1291,7 +1317,7 @@
         <v>2</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>3</v>
@@ -1300,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>5</v>
@@ -1312,28 +1338,28 @@
         <v>2</v>
       </c>
       <c r="Z6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AA6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AD6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="AD6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG6" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="AH6" s="9" t="s">
         <v>3</v>
@@ -1356,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>0</v>
@@ -1365,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>3</v>
@@ -1374,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>5</v>
@@ -1395,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="13" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P7" s="9" t="s">
         <v>5</v>
@@ -1407,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>3</v>
@@ -1416,7 +1442,7 @@
         <v>4</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>5</v>
@@ -1428,29 +1454,29 @@
         <v>2</v>
       </c>
       <c r="Z7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="19" t="s">
+      <c r="AD7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AD7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG7" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="AH7" s="9" t="s">
         <v>3</v>
       </c>
@@ -1458,7 +1484,7 @@
         <v>4</v>
       </c>
       <c r="AJ7" s="16" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="AK7" s="9" t="s">
         <v>5</v>
@@ -1472,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>0</v>
@@ -1481,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>3</v>
@@ -1490,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>5</v>
@@ -1511,29 +1537,29 @@
         <v>4</v>
       </c>
       <c r="O8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="14" t="s">
-        <v>63</v>
-      </c>
       <c r="W8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="Z8" s="15" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="AA8" s="9" t="s">
         <v>3</v>
@@ -1553,7 +1579,7 @@
         <v>4</v>
       </c>
       <c r="AC8" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AD8" s="9" t="s">
         <v>5</v>
@@ -1565,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="AG8" s="16" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="AH8" s="9" t="s">
         <v>3</v>
@@ -1574,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="AJ8" s="16" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="AK8" s="9" t="s">
         <v>5</v>
@@ -1588,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>0</v>
@@ -1597,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>3</v>
@@ -1606,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>5</v>
@@ -1627,7 +1653,7 @@
         <v>4</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>5</v>
@@ -1639,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>3</v>
@@ -1648,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="W9" s="9" t="s">
         <v>5</v>
@@ -1660,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="Z9" s="15" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="AA9" s="9" t="s">
         <v>3</v>
@@ -1669,7 +1695,7 @@
         <v>4</v>
       </c>
       <c r="AC9" s="19" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="AD9" s="9" t="s">
         <v>5</v>
@@ -1681,7 +1707,7 @@
         <v>2</v>
       </c>
       <c r="AG9" s="16" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="AH9" s="9" t="s">
         <v>3</v>
@@ -1690,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="AJ9" s="16" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AK9" s="9" t="s">
         <v>5</v>
@@ -1704,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>0</v>
@@ -1713,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>3</v>
@@ -1722,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>5</v>
@@ -1743,7 +1769,7 @@
         <v>4</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>5</v>
@@ -1755,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T10" s="9" t="s">
         <v>3</v>
@@ -1764,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="W10" s="9" t="s">
         <v>5</v>
@@ -1776,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="Z10" s="15" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AA10" s="9" t="s">
         <v>3</v>
@@ -1785,20 +1811,20 @@
         <v>4</v>
       </c>
       <c r="AC10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AD10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG10" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="AH10" s="9" t="s">
         <v>3</v>
       </c>
@@ -1806,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="AJ10" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AK10" s="9" t="s">
         <v>5</v>
@@ -1820,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>0</v>
@@ -1829,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>3</v>
@@ -1838,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>5</v>
@@ -1859,29 +1885,29 @@
         <v>4</v>
       </c>
       <c r="O11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="W11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1892,17 +1918,17 @@
         <v>2</v>
       </c>
       <c r="Z11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="AA11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC11" s="19" t="s">
-        <v>19</v>
-      </c>
       <c r="AD11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1913,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="AG11" s="16" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="AH11" s="9" t="s">
         <v>3</v>
@@ -1922,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="AJ11" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AK11" s="9" t="s">
         <v>5</v>
@@ -1935,21 +1961,27 @@
       <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="I12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1968,7 +2000,9 @@
       <c r="N12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="13"/>
+      <c r="O12" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="P12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1979,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T12" s="9" t="s">
         <v>3</v>
@@ -1987,7 +2021,9 @@
       <c r="U12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="14"/>
+      <c r="V12" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="W12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1997,14 +2033,18 @@
       <c r="Y12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="15"/>
+      <c r="Z12" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="AA12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AB12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AC12" s="15"/>
+      <c r="AC12" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="AD12" s="9" t="s">
         <v>5</v>
       </c>
@@ -2014,14 +2054,18 @@
       <c r="AF12" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AG12" s="16"/>
+      <c r="AG12" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="AH12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="AI12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AJ12" s="16"/>
+      <c r="AJ12" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="AK12" s="9" t="s">
         <v>5</v>
       </c>
@@ -2057,7 +2101,9 @@
       <c r="K13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="13"/>
+      <c r="L13" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="M13" s="9" t="s">
         <v>3</v>
       </c>
@@ -2074,7 +2120,9 @@
       <c r="R13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S13" s="14"/>
+      <c r="S13" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="T13" s="9" t="s">
         <v>3</v>
       </c>
@@ -3812,23 +3860,118 @@
         <v>5</v>
       </c>
       <c r="AL31" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="13"/>
+      <c r="M32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="13"/>
+      <c r="P32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S32" s="14"/>
+      <c r="T32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="14"/>
+      <c r="W32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE32" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL32" s="9" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AC7" r:id="rId1"/>
-    <hyperlink ref="AC10" r:id="rId2"/>
-    <hyperlink ref="AC11" r:id="rId3"/>
-    <hyperlink ref="AC9" r:id="rId4"/>
-    <hyperlink ref="AC5" r:id="rId5"/>
+    <hyperlink ref="AC8" r:id="rId1"/>
+    <hyperlink ref="AC11" r:id="rId2"/>
+    <hyperlink ref="AC12" r:id="rId3"/>
+    <hyperlink ref="AC10" r:id="rId4"/>
+    <hyperlink ref="AC6" r:id="rId5"/>
     <hyperlink ref="AC3" r:id="rId6"/>
-    <hyperlink ref="AC6" r:id="rId7"/>
-    <hyperlink ref="AC8" r:id="rId8"/>
-    <hyperlink ref="AC4" r:id="rId9"/>
+    <hyperlink ref="AC7" r:id="rId7"/>
+    <hyperlink ref="AC9" r:id="rId8"/>
+    <hyperlink ref="AC5" r:id="rId9"/>
+    <hyperlink ref="AC4" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>